--- a/notasMP.xlsx
+++ b/notasMP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavelnovoahernandez/R/jenui2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0F70F8-5B35-0442-8B2A-D259EB1225D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599D4C18-3D71-4D4B-81B0-699FDB7A2C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="2180" windowWidth="33740" windowHeight="18380" activeTab="2" xr2:uid="{2BD896F8-37F4-49E9-B24F-20B7E699856B}"/>
+    <workbookView xWindow="8100" yWindow="2180" windowWidth="33740" windowHeight="18380" activeTab="1" xr2:uid="{2BD896F8-37F4-49E9-B24F-20B7E699856B}"/>
   </bookViews>
   <sheets>
     <sheet name="evaluaciones" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
   <si>
     <t>NORDEN</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>Pesos</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Fijo</t>
+  </si>
+  <si>
+    <t>Tipo</t>
   </si>
 </sst>
 </file>
@@ -2231,10 +2240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21342CC7-F2C1-BA44-AEF7-ADD3F9ABC6F3}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2243,7 +2252,7 @@
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2253,8 +2262,11 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2265,8 +2277,11 @@
       <c r="C2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2277,8 +2292,11 @@
       <c r="C3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2289,8 +2307,11 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2301,8 +2322,11 @@
       <c r="C5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2313,8 +2337,11 @@
       <c r="C6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2325,8 +2352,11 @@
       <c r="C7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2336,6 +2366,9 @@
       </c>
       <c r="C8">
         <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2348,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD44A68-784F-4E64-B6CE-97BA000B9E55}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:Q18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
